--- a/biology/Zoologie/Formica_(homonymie)/Formica_(homonymie).xlsx
+++ b/biology/Zoologie/Formica_(homonymie)/Formica_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica est un mot latin (puis italien) signifiant « fourmi ».
 </t>
@@ -511,7 +523,9 @@
           <t>Matériau</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Formica est une marque déposée de mélamine, utilisée dans les bois mélaminés.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Patronyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Formica est un nom de famille  notamment porté par :
 Lautaro Formica (né en 1986), footballeur argentin ;
@@ -575,7 +591,9 @@
           <t>Toponyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Formica est une île de l'archipel des Égades, en Italie.</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Entomologie : Insectes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Formica est le nom latin de genre des fourmis rousses.</t>
         </is>
@@ -635,7 +655,9 @@
           <t>Arts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica, une tragédie en trois actes, bande dessinée de Fabcaro parue chez 6 pieds sous terre en 2019  (ISBN 978-2352121510)
 Sur les autres projets Wikimedia :
